--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H2">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I2">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J2">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N2">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q2">
-        <v>8663.798905914833</v>
+        <v>15014.8352352614</v>
       </c>
       <c r="R2">
-        <v>8663.798905914833</v>
+        <v>135133.5171173526</v>
       </c>
       <c r="S2">
-        <v>0.007098547069267695</v>
+        <v>0.01180651836834743</v>
       </c>
       <c r="T2">
-        <v>0.007098547069267695</v>
+        <v>0.01180651836834743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H3">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I3">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J3">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N3">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q3">
-        <v>5207.945729183181</v>
+        <v>8876.631563286719</v>
       </c>
       <c r="R3">
-        <v>5207.945729183181</v>
+        <v>79889.68406958049</v>
       </c>
       <c r="S3">
-        <v>0.004267048242262365</v>
+        <v>0.006979904338535532</v>
       </c>
       <c r="T3">
-        <v>0.004267048242262365</v>
+        <v>0.006979904338535534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H4">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I4">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J4">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N4">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q4">
-        <v>3265.684955657469</v>
+        <v>5901.138976074048</v>
       </c>
       <c r="R4">
-        <v>3265.684955657469</v>
+        <v>53110.25078466643</v>
       </c>
       <c r="S4">
-        <v>0.00267568749262032</v>
+        <v>0.004640204479338481</v>
       </c>
       <c r="T4">
-        <v>0.00267568749262032</v>
+        <v>0.004640204479338481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.4564912897853</v>
+        <v>65.399996</v>
       </c>
       <c r="H5">
-        <v>38.4564912897853</v>
+        <v>196.199988</v>
       </c>
       <c r="I5">
-        <v>0.01405965292917138</v>
+        <v>0.0234573392998008</v>
       </c>
       <c r="J5">
-        <v>0.01405965292917138</v>
+        <v>0.02345733929980081</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N5">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q5">
-        <v>22.42079505923858</v>
+        <v>39.05785861114</v>
       </c>
       <c r="R5">
-        <v>22.42079505923858</v>
+        <v>351.52072750026</v>
       </c>
       <c r="S5">
-        <v>1.837012502099437E-05</v>
+        <v>3.071211357936111E-05</v>
       </c>
       <c r="T5">
-        <v>1.837012502099437E-05</v>
+        <v>3.071211357936112E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H6">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I6">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J6">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N6">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q6">
-        <v>589949.8266894509</v>
+        <v>602319.7964454555</v>
       </c>
       <c r="R6">
-        <v>589949.8266894509</v>
+        <v>5420878.1680091</v>
       </c>
       <c r="S6">
-        <v>0.4833660913346404</v>
+        <v>0.4736182334956374</v>
       </c>
       <c r="T6">
-        <v>0.4833660913346404</v>
+        <v>0.4736182334956374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H7">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J7">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N7">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q7">
-        <v>354628.1156459112</v>
+        <v>356085.8865613175</v>
       </c>
       <c r="R7">
-        <v>354628.1156459112</v>
+        <v>3204772.979051857</v>
       </c>
       <c r="S7">
-        <v>0.2905589566811853</v>
+        <v>0.2799987142397892</v>
       </c>
       <c r="T7">
-        <v>0.2905589566811853</v>
+        <v>0.2799987142397892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H8">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J8">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N8">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q8">
-        <v>222372.4597644083</v>
+        <v>236724.0646449481</v>
       </c>
       <c r="R8">
-        <v>222372.4597644083</v>
+        <v>2130516.581804533</v>
       </c>
       <c r="S8">
-        <v>0.1821973697322109</v>
+        <v>0.1861417040992117</v>
       </c>
       <c r="T8">
-        <v>0.1821973697322109</v>
+        <v>0.1861417040992117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2618.64346320462</v>
+        <v>2623.51945</v>
       </c>
       <c r="H9">
-        <v>2618.64346320462</v>
+        <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="J9">
-        <v>0.9573733069007155</v>
+        <v>0.9409906676183405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N9">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q9">
-        <v>1526.714124263346</v>
+        <v>1566.80516833175</v>
       </c>
       <c r="R9">
-        <v>1526.714124263346</v>
+        <v>14101.24651498575</v>
       </c>
       <c r="S9">
-        <v>0.001250889152678783</v>
+        <v>0.001232015783702234</v>
       </c>
       <c r="T9">
-        <v>0.001250889152678783</v>
+        <v>0.001232015783702234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H10">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I10">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J10">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N10">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q10">
-        <v>45.7189745068208</v>
+        <v>50.52721950337066</v>
       </c>
       <c r="R10">
-        <v>45.7189745068208</v>
+        <v>454.744975530336</v>
       </c>
       <c r="S10">
-        <v>3.745912111068884E-05</v>
+        <v>3.973074201754187E-05</v>
       </c>
       <c r="T10">
-        <v>3.745912111068884E-05</v>
+        <v>3.973074201754187E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H11">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I11">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J11">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N11">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q11">
-        <v>27.48239434122581</v>
+        <v>29.87122432055966</v>
       </c>
       <c r="R11">
-        <v>27.48239434122581</v>
+        <v>268.8410188850369</v>
       </c>
       <c r="S11">
-        <v>2.251726660855224E-05</v>
+        <v>2.348844679943464E-05</v>
       </c>
       <c r="T11">
-        <v>2.251726660855224E-05</v>
+        <v>2.348844679943464E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H12">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I12">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J12">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N12">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q12">
-        <v>17.23306009943067</v>
+        <v>19.85823618388833</v>
       </c>
       <c r="R12">
-        <v>17.23306009943067</v>
+        <v>178.724125654995</v>
       </c>
       <c r="S12">
-        <v>1.411963615404466E-05</v>
+        <v>1.561499853940804E-05</v>
       </c>
       <c r="T12">
-        <v>1.411963615404466E-05</v>
+        <v>1.561499853940805E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.202935382502835</v>
+        <v>0.220081</v>
       </c>
       <c r="H13">
-        <v>0.202935382502835</v>
+        <v>0.6602429999999999</v>
       </c>
       <c r="I13">
-        <v>7.419296325133949E-05</v>
+        <v>7.89375383209421E-05</v>
       </c>
       <c r="J13">
-        <v>7.419296325133949E-05</v>
+        <v>7.893753832094211E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N13">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O13">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P13">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q13">
-        <v>0.1183148141903629</v>
+        <v>0.131435674415</v>
       </c>
       <c r="R13">
-        <v>0.1183148141903629</v>
+        <v>1.182921069735</v>
       </c>
       <c r="S13">
-        <v>9.69393780537279E-08</v>
+        <v>1.033509645575417E-07</v>
       </c>
       <c r="T13">
-        <v>9.69393780537279E-08</v>
+        <v>1.033509645575418E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H14">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I14">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J14">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N14">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O14">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P14">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q14">
-        <v>17557.78038766679</v>
+        <v>57.43886541169067</v>
       </c>
       <c r="R14">
-        <v>17557.78038766679</v>
+        <v>516.9497887052161</v>
       </c>
       <c r="S14">
-        <v>0.01438569060376378</v>
+        <v>4.516553188326449E-05</v>
       </c>
       <c r="T14">
-        <v>0.01438569060376378</v>
+        <v>4.516553188326449E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H15">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I15">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J15">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N15">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O15">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P15">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q15">
-        <v>10554.25782348882</v>
+        <v>33.95732538412466</v>
       </c>
       <c r="R15">
-        <v>10554.25782348882</v>
+        <v>305.615928457122</v>
       </c>
       <c r="S15">
-        <v>0.008647464784769401</v>
+        <v>2.670144424536128E-05</v>
       </c>
       <c r="T15">
-        <v>0.008647464784769401</v>
+        <v>2.670144424536129E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>77.93470691999789</v>
+        <v>0.250186</v>
       </c>
       <c r="H16">
-        <v>77.93470691999789</v>
+        <v>0.7505580000000001</v>
       </c>
       <c r="I16">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244271E-05</v>
       </c>
       <c r="J16">
-        <v>0.02849284720686172</v>
+        <v>8.973544723244272E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N16">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O16">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P16">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q16">
-        <v>6618.133672008018</v>
+        <v>22.57465514016334</v>
       </c>
       <c r="R16">
-        <v>6618.133672008018</v>
+        <v>203.17189626147</v>
       </c>
       <c r="S16">
-        <v>0.005422463504939087</v>
+        <v>1.775098270446037E-05</v>
       </c>
       <c r="T16">
-        <v>0.005422463504939087</v>
+        <v>1.775098270446037E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.250186</v>
+      </c>
+      <c r="H17">
+        <v>0.7505580000000001</v>
+      </c>
+      <c r="I17">
+        <v>8.973544723244271E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.973544723244272E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.791645</v>
+      </c>
+      <c r="O17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q17">
+        <v>0.14941483199</v>
+      </c>
+      <c r="R17">
+        <v>1.34473348791</v>
+      </c>
+      <c r="S17">
+        <v>1.174883993565694E-07</v>
+      </c>
+      <c r="T17">
+        <v>1.174883993565694E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H18">
+        <v>295.950316</v>
+      </c>
+      <c r="I18">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J18">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N18">
+        <v>688.753952</v>
+      </c>
+      <c r="O18">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P18">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q18">
+        <v>22648.5499711832</v>
+      </c>
+      <c r="R18">
+        <v>203836.9497406488</v>
+      </c>
+      <c r="S18">
+        <v>0.01780908794944588</v>
+      </c>
+      <c r="T18">
+        <v>0.01780908794944588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H19">
+        <v>295.950316</v>
+      </c>
+      <c r="I19">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J19">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N19">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P19">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q19">
+        <v>13389.613031833</v>
+      </c>
+      <c r="R19">
+        <v>120506.517286497</v>
+      </c>
+      <c r="S19">
+        <v>0.01052856789491425</v>
+      </c>
+      <c r="T19">
+        <v>0.01052856789491425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="H17">
-        <v>77.93470691999789</v>
-      </c>
-      <c r="I17">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="J17">
-        <v>0.02849284720686172</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="N17">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="O17">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="P17">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="Q17">
-        <v>45.43727296096885</v>
-      </c>
-      <c r="R17">
-        <v>45.43727296096885</v>
-      </c>
-      <c r="S17">
-        <v>3.72283133894535E-05</v>
-      </c>
-      <c r="T17">
-        <v>3.72283133894535E-05</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H20">
+        <v>295.950316</v>
+      </c>
+      <c r="I20">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J20">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N20">
+        <v>270.694465</v>
+      </c>
+      <c r="O20">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P20">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q20">
+        <v>8901.345828466772</v>
+      </c>
+      <c r="R20">
+        <v>80112.11245620095</v>
+      </c>
+      <c r="S20">
+        <v>0.006999337746977022</v>
+      </c>
+      <c r="T20">
+        <v>0.006999337746977022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>98.65010533333333</v>
+      </c>
+      <c r="H21">
+        <v>295.950316</v>
+      </c>
+      <c r="I21">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="J21">
+        <v>0.03538332009630534</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.791645</v>
+      </c>
+      <c r="O21">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P21">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q21">
+        <v>58.91532265664666</v>
+      </c>
+      <c r="R21">
+        <v>530.2379039098199</v>
+      </c>
+      <c r="S21">
+        <v>4.632650496818486E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.632650496818486E-05</v>
       </c>
     </row>
   </sheetData>
